--- a/credentials/excel.xlsx
+++ b/credentials/excel.xlsx
@@ -422,12 +422,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Python testing</t>
+          <t>Python testing 1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
